--- a/tables/table_07_v2.xlsx
+++ b/tables/table_07_v2.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table_07" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="table_07" localSheetId="0">Sheet1!$A$1:$E$20</definedName>
-  </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,22 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="table_07" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/umut/GitHub/Guo_etal_SCV/tables/table_07.csv" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +69,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,39 +187,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,9 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -247,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="table_07" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,307 +518,307 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="A2" s="13"/>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6E-9</v>
+      </c>
+      <c r="E2" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6E-9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>154</v>
-      </c>
-      <c r="D4" s="8">
-        <v>173</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>154</v>
+      </c>
+      <c r="D4" s="6">
+        <v>173</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="E6" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>154</v>
-      </c>
-      <c r="D8" s="8">
-        <v>173</v>
-      </c>
-      <c r="E8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6">
+        <v>173</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E10" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>154</v>
-      </c>
-      <c r="D12" s="8">
-        <v>173</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>154</v>
+      </c>
+      <c r="D12" s="6">
+        <v>173</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.12</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.12</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>154</v>
-      </c>
-      <c r="D16" s="8">
-        <v>173</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>154</v>
+      </c>
+      <c r="D16" s="6">
+        <v>173</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
         <v>0.43</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>0.43</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>154</v>
-      </c>
-      <c r="D20" s="8">
-        <v>173</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>154</v>
+      </c>
+      <c r="D20" s="6">
+        <v>173</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
